--- a/PRECIS/KeyListVariables.xlsx
+++ b/PRECIS/KeyListVariables.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="20055" windowHeight="10485"/>
+    <workbookView xWindow="1035" yWindow="720" windowWidth="20055" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly, 30yr Averages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Variable</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>SoilML</t>
-  </si>
-  <si>
-    <t>* 2592000</t>
   </si>
   <si>
     <t>Stash Code</t>
@@ -398,6 +395,12 @@
       </rPr>
       <t>−1</t>
     </r>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,7 +1001,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1009,9 +1011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,6 +1026,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1362,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,620 +1380,633 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A2" s="16">
+        <v>2204</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
+      <c r="A3" s="16">
+        <v>3297</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A4" s="16">
+        <v>3510</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A5" s="16">
+        <v>3511</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1">
+      <c r="A6" s="16">
+        <v>3312</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="16">
+        <v>3296</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1">
+      <c r="A8" s="16">
+        <v>5216</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A9" s="16">
+        <v>16222</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A10" s="16">
+        <v>3245</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1">
+      <c r="A11" s="16">
+        <v>3237</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1">
+      <c r="A12" s="16">
+        <v>3234</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A13" s="16">
+        <v>3313</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" thickBot="1">
+      <c r="A14" s="16">
+        <v>8208</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" thickBot="1">
+      <c r="A15" s="16">
+        <v>3298</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A17" s="16">
+        <v>3236</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1">
+      <c r="A19" s="16">
+        <v>3299</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A21" s="16">
+        <v>24</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1">
+      <c r="A23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1">
+      <c r="A24" s="16">
+        <v>3249</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="16.5">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A2" s="18">
-        <v>2204</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="16.5">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1">
-      <c r="A3" s="18">
-        <v>3297</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="5" t="s">
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A4" s="18">
-        <v>3510</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="5" t="s">
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A5" s="18">
-        <v>3511</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" s="1">
+        <v>16204</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="1">
+        <v>82223</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5">
+      <c r="A33" s="1">
+        <v>8225</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" thickBot="1">
-      <c r="A6" s="18">
-        <v>3312</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" thickBot="1">
-      <c r="A7" s="18">
-        <v>3296</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1">
-        <v>16204</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A8" s="18">
-        <v>5216</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1">
-        <v>82223</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A9" s="18">
-        <v>16222</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8225</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A10" s="18">
-        <v>3245</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" thickBot="1">
-      <c r="A11" s="18">
-        <v>3237</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" thickBot="1">
-      <c r="A12" s="18">
-        <v>3234</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A13" s="18">
-        <v>3313</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="18" thickBot="1">
-      <c r="A14" s="18">
-        <v>8208</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" thickBot="1">
-      <c r="A15" s="18">
-        <v>3298</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="18">
-        <v>3236</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1">
-      <c r="A19" s="18">
-        <v>3299</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="18">
-        <v>24</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1">
-      <c r="A23" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="A24" s="18">
-        <v>3249</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="16.5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1"/>
   </sheetData>
   <sortState ref="A2:F35">
     <sortCondition ref="D1"/>
